--- a/excel/real_world_graph_time.xlsx
+++ b/excel/real_world_graph_time.xlsx
@@ -467,855 +467,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0.259</v>
+      </c>
       <c r="C2">
-        <v>0.259</v>
+        <v>1.293</v>
       </c>
       <c r="D2">
-        <v>1.293</v>
+        <v>4.889</v>
       </c>
       <c r="E2">
-        <v>4.889</v>
+        <v>3.477</v>
       </c>
       <c r="F2">
-        <v>3.477</v>
+        <v>1.239</v>
       </c>
       <c r="G2">
-        <v>1.239</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="H2">
-        <v>9.032999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="I2">
-        <v>0.796</v>
+        <v>0.503</v>
       </c>
       <c r="J2">
-        <v>0.503</v>
+        <v>325729</v>
       </c>
       <c r="K2">
-        <v>325729</v>
+        <v>1090108</v>
       </c>
       <c r="L2">
-        <v>1090108</v>
-      </c>
-      <c r="M2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>0.223</v>
+      </c>
       <c r="C3">
-        <v>0.223</v>
+        <v>0.919</v>
       </c>
       <c r="D3">
-        <v>0.919</v>
+        <v>5.7</v>
       </c>
       <c r="E3">
-        <v>5.7</v>
+        <v>3.094</v>
       </c>
       <c r="F3">
-        <v>3.094</v>
+        <v>1.194</v>
       </c>
       <c r="G3">
-        <v>1.194</v>
+        <v>1.606</v>
       </c>
       <c r="H3">
-        <v>1.606</v>
+        <v>0.745</v>
       </c>
       <c r="I3">
-        <v>0.745</v>
+        <v>0.457</v>
       </c>
       <c r="J3">
-        <v>0.457</v>
+        <v>317080</v>
       </c>
       <c r="K3">
-        <v>317080</v>
+        <v>1049866</v>
       </c>
       <c r="L3">
-        <v>1049866</v>
-      </c>
-      <c r="M3">
         <v>6.62</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0.378</v>
+      </c>
       <c r="C4">
-        <v>0.378</v>
+        <v>1.296</v>
       </c>
       <c r="D4">
-        <v>1.296</v>
+        <v>8.899000000000001</v>
       </c>
       <c r="E4">
-        <v>8.899000000000001</v>
+        <v>3.385</v>
       </c>
       <c r="F4">
-        <v>3.385</v>
+        <v>1.557</v>
       </c>
       <c r="G4">
-        <v>1.557</v>
+        <v>3.052</v>
       </c>
       <c r="H4">
-        <v>3.052</v>
+        <v>1.584</v>
       </c>
       <c r="I4">
-        <v>1.584</v>
+        <v>0.662</v>
       </c>
       <c r="J4">
-        <v>0.662</v>
+        <v>403394</v>
       </c>
       <c r="K4">
-        <v>403394</v>
+        <v>2443408</v>
       </c>
       <c r="L4">
-        <v>2443408</v>
-      </c>
-      <c r="M4">
         <v>12.11</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.165</v>
+      </c>
       <c r="C5">
-        <v>0.165</v>
+        <v>1.988</v>
       </c>
       <c r="D5">
-        <v>1.988</v>
+        <v>20.475</v>
       </c>
       <c r="E5">
-        <v>20.475</v>
+        <v>3.183</v>
       </c>
       <c r="F5">
-        <v>3.183</v>
+        <v>0.522</v>
       </c>
       <c r="G5">
-        <v>0.522</v>
+        <v>7.797</v>
       </c>
       <c r="H5">
-        <v>7.797</v>
+        <v>1.576</v>
       </c>
       <c r="I5">
-        <v>1.576</v>
+        <v>0.7380000000000001</v>
       </c>
       <c r="J5">
-        <v>0.7380000000000001</v>
+        <v>1965206</v>
       </c>
       <c r="K5">
-        <v>1965206</v>
+        <v>2766607</v>
       </c>
       <c r="L5">
-        <v>2766607</v>
-      </c>
-      <c r="M5">
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>2.955</v>
+      </c>
       <c r="C6">
-        <v>2.955</v>
+        <v>22.122</v>
       </c>
       <c r="D6">
-        <v>22.122</v>
+        <v>28.331</v>
       </c>
       <c r="E6">
-        <v>28.331</v>
+        <v>4.540999999999999</v>
       </c>
       <c r="F6">
-        <v>4.540999999999999</v>
+        <v>2.813</v>
       </c>
       <c r="G6">
-        <v>2.813</v>
+        <v>6.137</v>
       </c>
       <c r="H6">
-        <v>6.137</v>
+        <v>5.532999999999999</v>
       </c>
       <c r="I6">
-        <v>5.532999999999999</v>
+        <v>2.606</v>
       </c>
       <c r="J6">
-        <v>2.606</v>
+        <v>2394385</v>
       </c>
       <c r="K6">
-        <v>2394385</v>
+        <v>4659565</v>
       </c>
       <c r="L6">
-        <v>4659565</v>
-      </c>
-      <c r="M6">
         <v>3.89</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1.532</v>
+      </c>
       <c r="C7">
-        <v>1.532</v>
+        <v>6.514</v>
       </c>
       <c r="D7">
-        <v>6.514</v>
+        <v>22.202</v>
       </c>
       <c r="E7">
-        <v>22.202</v>
+        <v>4.502</v>
       </c>
       <c r="F7">
-        <v>4.502</v>
+        <v>2.95</v>
       </c>
       <c r="G7">
-        <v>2.95</v>
+        <v>10.709</v>
       </c>
       <c r="H7">
-        <v>10.709</v>
+        <v>3.873</v>
       </c>
       <c r="I7">
-        <v>3.873</v>
+        <v>1.533</v>
       </c>
       <c r="J7">
-        <v>1.533</v>
+        <v>1224346</v>
       </c>
       <c r="K7">
-        <v>1224346</v>
+        <v>5369472</v>
       </c>
       <c r="L7">
-        <v>5369472</v>
-      </c>
-      <c r="M7">
         <v>8.77</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
       <c r="C8">
-        <v>0.95</v>
+        <v>4.348</v>
       </c>
       <c r="D8">
-        <v>4.348</v>
+        <v>18.348</v>
       </c>
       <c r="E8">
+        <v>4.802</v>
+      </c>
+      <c r="F8">
+        <v>2.732</v>
+      </c>
+      <c r="G8">
+        <v>9.833</v>
+      </c>
+      <c r="H8">
+        <v>4.845999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.534</v>
+      </c>
+      <c r="J8">
+        <v>685230</v>
+      </c>
+      <c r="K8">
+        <v>6649470</v>
+      </c>
+      <c r="L8">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>4.294</v>
+      </c>
+      <c r="C9">
+        <v>15.581</v>
+      </c>
+      <c r="D9">
+        <v>38.712</v>
+      </c>
+      <c r="E9">
+        <v>7.423</v>
+      </c>
+      <c r="F9">
+        <v>4.92</v>
+      </c>
+      <c r="G9">
+        <v>23.771</v>
+      </c>
+      <c r="H9">
+        <v>8.375</v>
+      </c>
+      <c r="I9">
+        <v>3.314</v>
+      </c>
+      <c r="J9">
+        <v>1696415</v>
+      </c>
+      <c r="K9">
+        <v>11095298</v>
+      </c>
+      <c r="L9">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6.418</v>
+      </c>
+      <c r="C10">
+        <v>14.09</v>
+      </c>
+      <c r="D10">
+        <v>71.887</v>
+      </c>
+      <c r="E10">
+        <v>12.05</v>
+      </c>
+      <c r="F10">
+        <v>10.939</v>
+      </c>
+      <c r="G10">
+        <v>24.304</v>
+      </c>
+      <c r="H10">
+        <v>13.149</v>
+      </c>
+      <c r="I10">
+        <v>5.67</v>
+      </c>
+      <c r="J10">
+        <v>3774768</v>
+      </c>
+      <c r="K10">
+        <v>16518947</v>
+      </c>
+      <c r="L10">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>16.922</v>
+      </c>
+      <c r="C11">
+        <v>25.372</v>
+      </c>
+      <c r="D11">
+        <v>60.665</v>
+      </c>
+      <c r="E11">
+        <v>15.773</v>
+      </c>
+      <c r="F11">
         <v>18.348</v>
       </c>
-      <c r="F8">
-        <v>4.802</v>
-      </c>
-      <c r="G8">
-        <v>2.732</v>
-      </c>
-      <c r="H8">
-        <v>9.833</v>
-      </c>
-      <c r="I8">
-        <v>4.845999999999999</v>
-      </c>
-      <c r="J8">
-        <v>1.534</v>
-      </c>
-      <c r="K8">
-        <v>685230</v>
-      </c>
-      <c r="L8">
-        <v>6649470</v>
-      </c>
-      <c r="M8">
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>4.294</v>
-      </c>
-      <c r="D9">
-        <v>15.581</v>
-      </c>
-      <c r="E9">
-        <v>38.712</v>
-      </c>
-      <c r="F9">
-        <v>7.423</v>
-      </c>
-      <c r="G9">
-        <v>4.92</v>
-      </c>
-      <c r="H9">
-        <v>23.771</v>
-      </c>
-      <c r="I9">
-        <v>8.375</v>
-      </c>
-      <c r="J9">
-        <v>3.314</v>
-      </c>
-      <c r="K9">
-        <v>1696415</v>
-      </c>
-      <c r="L9">
-        <v>11095298</v>
-      </c>
-      <c r="M9">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>6.418</v>
-      </c>
-      <c r="D10">
-        <v>14.09</v>
-      </c>
-      <c r="E10">
-        <v>71.887</v>
-      </c>
-      <c r="F10">
-        <v>12.05</v>
-      </c>
-      <c r="G10">
-        <v>10.939</v>
-      </c>
-      <c r="H10">
-        <v>24.304</v>
-      </c>
-      <c r="I10">
-        <v>13.149</v>
-      </c>
-      <c r="J10">
-        <v>5.67</v>
-      </c>
-      <c r="K10">
-        <v>3774768</v>
-      </c>
-      <c r="L10">
-        <v>16518947</v>
-      </c>
-      <c r="M10">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>16.922</v>
-      </c>
-      <c r="D11">
-        <v>25.372</v>
-      </c>
-      <c r="E11">
-        <v>60.665</v>
-      </c>
-      <c r="F11">
-        <v>15.773</v>
-      </c>
       <c r="G11">
-        <v>18.348</v>
+        <v>29.32</v>
       </c>
       <c r="H11">
-        <v>29.32</v>
+        <v>21.343</v>
       </c>
       <c r="I11">
-        <v>21.343</v>
+        <v>8.968</v>
       </c>
       <c r="J11">
-        <v>8.968</v>
+        <v>1632803</v>
       </c>
       <c r="K11">
-        <v>1632803</v>
+        <v>22301964</v>
       </c>
       <c r="L11">
-        <v>22301964</v>
-      </c>
-      <c r="M11">
         <v>27.32</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>62.597</v>
+      </c>
       <c r="C12">
-        <v>62.597</v>
+        <v>143.396</v>
       </c>
       <c r="D12">
-        <v>143.396</v>
+        <v>100.986</v>
       </c>
       <c r="E12">
-        <v>100.986</v>
+        <v>30.519</v>
       </c>
       <c r="F12">
-        <v>30.519</v>
+        <v>46.399</v>
       </c>
       <c r="G12">
-        <v>46.399</v>
+        <v>57.402</v>
       </c>
       <c r="H12">
-        <v>57.402</v>
+        <v>95.952</v>
       </c>
       <c r="I12">
-        <v>95.952</v>
+        <v>28.762</v>
       </c>
       <c r="J12">
-        <v>28.762</v>
+        <v>2601977</v>
       </c>
       <c r="K12">
-        <v>2601977</v>
+        <v>28183518</v>
       </c>
       <c r="L12">
-        <v>28183518</v>
-      </c>
-      <c r="M12">
         <v>21.66</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>23.651</v>
+      </c>
       <c r="C13">
-        <v>23.651</v>
+        <v>64.86</v>
       </c>
       <c r="D13">
-        <v>64.86</v>
+        <v>104.048</v>
       </c>
       <c r="E13">
-        <v>104.048</v>
+        <v>22.892</v>
       </c>
       <c r="F13">
-        <v>22.892</v>
+        <v>28.656</v>
       </c>
       <c r="G13">
-        <v>28.656</v>
+        <v>45.231</v>
       </c>
       <c r="H13">
-        <v>45.231</v>
+        <v>40.84200000000001</v>
       </c>
       <c r="I13">
-        <v>40.84200000000001</v>
+        <v>13.04</v>
       </c>
       <c r="J13">
-        <v>13.04</v>
+        <v>3997962</v>
       </c>
       <c r="K13">
-        <v>3997962</v>
+        <v>34681189</v>
       </c>
       <c r="L13">
-        <v>34681189</v>
-      </c>
-      <c r="M13">
         <v>17.35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>35.531</v>
+      </c>
       <c r="C14">
-        <v>35.531</v>
+        <v>105.265</v>
       </c>
       <c r="D14">
-        <v>105.265</v>
+        <v>128.464</v>
       </c>
       <c r="E14">
-        <v>128.464</v>
+        <v>29.77</v>
       </c>
       <c r="F14">
-        <v>29.77</v>
+        <v>40.925</v>
       </c>
       <c r="G14">
-        <v>40.925</v>
+        <v>62.785</v>
       </c>
       <c r="H14">
-        <v>62.785</v>
+        <v>59.295</v>
       </c>
       <c r="I14">
-        <v>59.295</v>
+        <v>18.13</v>
       </c>
       <c r="J14">
-        <v>18.13</v>
+        <v>4847571</v>
       </c>
       <c r="K14">
-        <v>4847571</v>
+        <v>42851237</v>
       </c>
       <c r="L14">
-        <v>42851237</v>
-      </c>
-      <c r="M14">
         <v>17.68</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>6.282</v>
       </c>
+      <c r="D15">
+        <v>504.837</v>
+      </c>
       <c r="E15">
-        <v>504.837</v>
+        <v>22.712</v>
       </c>
       <c r="F15">
-        <v>22.712</v>
+        <v>9.062000000000001</v>
       </c>
       <c r="G15">
-        <v>9.062000000000001</v>
+        <v>771.121</v>
       </c>
       <c r="H15">
-        <v>771.121</v>
+        <v>34.061</v>
       </c>
       <c r="I15">
-        <v>34.061</v>
+        <v>15.989</v>
       </c>
       <c r="J15">
-        <v>15.989</v>
+        <v>55042369</v>
       </c>
       <c r="K15">
-        <v>55042369</v>
+        <v>58608800</v>
       </c>
       <c r="L15">
-        <v>58608800</v>
-      </c>
-      <c r="M15">
         <v>2.13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>659.494</v>
+      </c>
       <c r="C16">
-        <v>659.494</v>
+        <v>2107.678</v>
       </c>
       <c r="D16">
-        <v>2107.678</v>
+        <v>676.929</v>
       </c>
       <c r="E16">
-        <v>676.929</v>
+        <v>375.86</v>
       </c>
       <c r="F16">
-        <v>375.86</v>
+        <v>638.923</v>
       </c>
       <c r="G16">
-        <v>638.923</v>
+        <v>534.532</v>
       </c>
       <c r="H16">
-        <v>534.532</v>
+        <v>2188.051</v>
       </c>
       <c r="I16">
-        <v>2188.051</v>
+        <v>242.755</v>
       </c>
       <c r="J16">
-        <v>242.755</v>
+        <v>1985306</v>
       </c>
       <c r="K16">
-        <v>1985306</v>
+        <v>114492816</v>
       </c>
       <c r="L16">
-        <v>114492816</v>
-      </c>
-      <c r="M16">
         <v>115.34</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>232.864</v>
+      </c>
       <c r="C17">
-        <v>232.864</v>
+        <v>566.4670000000001</v>
       </c>
       <c r="D17">
-        <v>566.4670000000001</v>
+        <v>300.563</v>
       </c>
       <c r="E17">
-        <v>300.563</v>
+        <v>126.684</v>
       </c>
       <c r="F17">
-        <v>126.684</v>
+        <v>226.064</v>
       </c>
       <c r="G17">
-        <v>226.064</v>
+        <v>234.398</v>
       </c>
       <c r="H17">
-        <v>234.398</v>
+        <v>377.288</v>
       </c>
       <c r="I17">
-        <v>377.288</v>
+        <v>93.651</v>
       </c>
       <c r="J17">
-        <v>93.651</v>
+        <v>3072441</v>
       </c>
       <c r="K17">
-        <v>3072441</v>
+        <v>117185083</v>
       </c>
       <c r="L17">
-        <v>117185083</v>
-      </c>
-      <c r="M17">
         <v>76.28</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>234.843</v>
+      </c>
       <c r="C18">
-        <v>234.843</v>
+        <v>507.5190000000001</v>
       </c>
       <c r="D18">
-        <v>507.5190000000001</v>
+        <v>384.916</v>
       </c>
       <c r="E18">
-        <v>384.916</v>
+        <v>128.144</v>
       </c>
       <c r="F18">
-        <v>128.144</v>
+        <v>211.193</v>
       </c>
       <c r="G18">
-        <v>211.193</v>
+        <v>270.694</v>
       </c>
       <c r="H18">
-        <v>270.694</v>
+        <v>365.835</v>
       </c>
       <c r="I18">
-        <v>365.835</v>
+        <v>97.283</v>
       </c>
       <c r="J18">
-        <v>97.283</v>
+        <v>6783976</v>
       </c>
       <c r="K18">
-        <v>6783976</v>
+        <v>157010940</v>
       </c>
       <c r="L18">
-        <v>157010940</v>
-      </c>
-      <c r="M18">
         <v>46.29</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>21.07</v>
       </c>
+      <c r="D19">
+        <v>1918.733</v>
+      </c>
       <c r="E19">
-        <v>1918.733</v>
+        <v>79.58800000000001</v>
       </c>
       <c r="F19">
-        <v>79.58800000000001</v>
+        <v>28.994</v>
       </c>
       <c r="G19">
-        <v>28.994</v>
+        <v>3027.462</v>
       </c>
       <c r="H19">
-        <v>3027.462</v>
+        <v>133.122</v>
       </c>
       <c r="I19">
-        <v>133.122</v>
+        <v>64.366</v>
       </c>
       <c r="J19">
-        <v>64.366</v>
+        <v>214005017</v>
       </c>
       <c r="K19">
-        <v>214005017</v>
+        <v>232705452</v>
       </c>
       <c r="L19">
-        <v>232705452</v>
-      </c>
-      <c r="M19">
         <v>2.17</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>10127.473</v>
       </c>
+      <c r="D20">
+        <v>13712.938</v>
+      </c>
       <c r="E20">
-        <v>13712.938</v>
+        <v>4576.286</v>
       </c>
       <c r="F20">
-        <v>4576.286</v>
+        <v>10164.909</v>
       </c>
       <c r="G20">
-        <v>10164.909</v>
+        <v>7103.446</v>
       </c>
       <c r="H20">
-        <v>7103.446</v>
+        <v>61903.361</v>
       </c>
       <c r="I20">
-        <v>61903.361</v>
+        <v>3285.468</v>
       </c>
       <c r="J20">
-        <v>3285.468</v>
+        <v>41652230</v>
       </c>
       <c r="K20">
-        <v>41652230</v>
+        <v>1202513046</v>
       </c>
       <c r="L20">
-        <v>1202513046</v>
-      </c>
-      <c r="M20">
         <v>57.74</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>5433.922</v>
       </c>
+      <c r="D21">
+        <v>5541.308</v>
+      </c>
       <c r="E21">
-        <v>5541.308</v>
+        <v>2582.959</v>
       </c>
       <c r="F21">
-        <v>2582.959</v>
+        <v>5757.107999999999</v>
       </c>
       <c r="G21">
-        <v>5757.107999999999</v>
+        <v>5527.059</v>
       </c>
       <c r="H21">
-        <v>5527.059</v>
+        <v>9146.589</v>
       </c>
       <c r="I21">
-        <v>9146.589</v>
+        <v>2226.374</v>
       </c>
       <c r="J21">
-        <v>2226.374</v>
+        <v>65608366</v>
       </c>
       <c r="K21">
-        <v>65608366</v>
+        <v>1806067135</v>
       </c>
       <c r="L21">
-        <v>1806067135</v>
-      </c>
-      <c r="M21">
         <v>55.06</v>
       </c>
     </row>

--- a/excel/real_world_graph_time.xlsx
+++ b/excel/real_world_graph_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Datasets</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>avg_degree</t>
+  </si>
+  <si>
+    <t>small degree first vertex</t>
+  </si>
+  <si>
+    <t>small degree first edge</t>
+  </si>
+  <si>
+    <t>no compute first vertex</t>
+  </si>
+  <si>
+    <t>no compute first edge</t>
+  </si>
+  <si>
+    <t>small degree vertex avg degree</t>
   </si>
   <si>
     <t>WN</t>
@@ -467,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +525,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.259</v>
@@ -546,12 +576,27 @@
         <v>1090108</v>
       </c>
       <c r="L2">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.693343239318574</v>
+      </c>
+      <c r="M2">
+        <v>487</v>
+      </c>
+      <c r="N2">
+        <v>62122</v>
+      </c>
+      <c r="O2">
+        <v>151666</v>
+      </c>
+      <c r="P2">
+        <v>918795</v>
+      </c>
+      <c r="Q2">
+        <v>5.666613749264117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.223</v>
@@ -584,12 +629,27 @@
         <v>1049866</v>
       </c>
       <c r="L3">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.622089062697111</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>1492</v>
+      </c>
+      <c r="O3">
+        <v>242509</v>
+      </c>
+      <c r="P3">
+        <v>977594</v>
+      </c>
+      <c r="Q3">
+        <v>4.025245881358378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0.378</v>
@@ -622,12 +682,27 @@
         <v>2443408</v>
       </c>
       <c r="L4">
-        <v>12.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.11425058379649</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>377343</v>
+      </c>
+      <c r="P4">
+        <v>2421872</v>
+      </c>
+      <c r="Q4">
+        <v>6.418224268106206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.165</v>
@@ -660,12 +735,27 @@
         <v>2766607</v>
       </c>
       <c r="L5">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.815589816029465</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>856203</v>
+      </c>
+      <c r="P5">
+        <v>1928091</v>
+      </c>
+      <c r="Q5">
+        <v>2.251908717909187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2.955</v>
@@ -698,12 +788,27 @@
         <v>4659565</v>
       </c>
       <c r="L6">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>3.892076671044966</v>
+      </c>
+      <c r="M6">
+        <v>1411</v>
+      </c>
+      <c r="N6">
+        <v>203200</v>
+      </c>
+      <c r="O6">
+        <v>621012</v>
+      </c>
+      <c r="P6">
+        <v>2888957</v>
+      </c>
+      <c r="Q6">
+        <v>4.334655689709991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1.532</v>
@@ -736,12 +841,27 @@
         <v>5369472</v>
       </c>
       <c r="L7">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.771167627451717</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>406</v>
+      </c>
+      <c r="O7">
+        <v>848577</v>
+      </c>
+      <c r="P7">
+        <v>5094250</v>
+      </c>
+      <c r="Q7">
+        <v>6.002835348284709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0.95</v>
@@ -774,12 +894,27 @@
         <v>6649470</v>
       </c>
       <c r="L8">
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>19.40799439604221</v>
+      </c>
+      <c r="M8">
+        <v>1854</v>
+      </c>
+      <c r="N8">
+        <v>209701</v>
+      </c>
+      <c r="O8">
+        <v>608489</v>
+      </c>
+      <c r="P8">
+        <v>6581031</v>
+      </c>
+      <c r="Q8">
+        <v>10.5027405276649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>4.294</v>
@@ -812,12 +947,27 @@
         <v>11095298</v>
       </c>
       <c r="L9">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.08087702596358</v>
+      </c>
+      <c r="M9">
+        <v>988</v>
+      </c>
+      <c r="N9">
+        <v>116340</v>
+      </c>
+      <c r="O9">
+        <v>1423165</v>
+      </c>
+      <c r="P9">
+        <v>10832625</v>
+      </c>
+      <c r="Q9">
+        <v>7.535127484131722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>6.418</v>
@@ -850,12 +1000,27 @@
         <v>16518947</v>
       </c>
       <c r="L10">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>8.752297889565664</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2944946</v>
+      </c>
+      <c r="P10">
+        <v>15745211</v>
+      </c>
+      <c r="Q10">
+        <v>5.346519426841782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>16.922</v>
@@ -888,12 +1053,27 @@
         <v>22301964</v>
       </c>
       <c r="L11">
-        <v>27.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27.31739713854029</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1462551</v>
+      </c>
+      <c r="P11">
+        <v>22132301</v>
+      </c>
+      <c r="Q11">
+        <v>15.13266956160845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>62.597</v>
@@ -926,12 +1106,27 @@
         <v>28183518</v>
       </c>
       <c r="L12">
-        <v>21.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.66315689954216</v>
+      </c>
+      <c r="M12">
+        <v>37378</v>
+      </c>
+      <c r="N12">
+        <v>5559907</v>
+      </c>
+      <c r="O12">
+        <v>1947518</v>
+      </c>
+      <c r="P12">
+        <v>27552833</v>
+      </c>
+      <c r="Q12">
+        <v>11.5137770006387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>23.651</v>
@@ -964,12 +1159,27 @@
         <v>34681189</v>
       </c>
       <c r="L13">
-        <v>17.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.34943403664167</v>
+      </c>
+      <c r="M13">
+        <v>9274</v>
+      </c>
+      <c r="N13">
+        <v>1380556</v>
+      </c>
+      <c r="O13">
+        <v>3132157</v>
+      </c>
+      <c r="P13">
+        <v>33823008</v>
+      </c>
+      <c r="Q13">
+        <v>10.38862230829653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>35.531</v>
@@ -1002,12 +1212,27 @@
         <v>42851237</v>
       </c>
       <c r="L14">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.67946751063574</v>
+      </c>
+      <c r="M14">
+        <v>18936</v>
+      </c>
+      <c r="N14">
+        <v>2875108</v>
+      </c>
+      <c r="O14">
+        <v>3680794</v>
+      </c>
+      <c r="P14">
+        <v>41695681</v>
+      </c>
+      <c r="Q14">
+        <v>10.601332165256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>6.282</v>
@@ -1037,12 +1262,27 @@
         <v>58608800</v>
       </c>
       <c r="L15">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.129588572032574</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>19284842</v>
+      </c>
+      <c r="P15">
+        <v>38751887</v>
+      </c>
+      <c r="Q15">
+        <v>2.009447990292065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>659.494</v>
@@ -1075,12 +1315,27 @@
         <v>114492816</v>
       </c>
       <c r="L16">
-        <v>115.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>115.3402206007537</v>
+      </c>
+      <c r="M16">
+        <v>280915</v>
+      </c>
+      <c r="N16">
+        <v>67360442</v>
+      </c>
+      <c r="O16">
+        <v>1927066</v>
+      </c>
+      <c r="P16">
+        <v>114450945</v>
+      </c>
+      <c r="Q16">
+        <v>28.60642978681786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>232.864</v>
@@ -1113,12 +1368,27 @@
         <v>117185083</v>
       </c>
       <c r="L17">
-        <v>76.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>76.28142118921079</v>
+      </c>
+      <c r="M17">
+        <v>121341</v>
+      </c>
+      <c r="N17">
+        <v>19727089</v>
+      </c>
+      <c r="O17">
+        <v>3003794</v>
+      </c>
+      <c r="P17">
+        <v>117116597</v>
+      </c>
+      <c r="Q17">
+        <v>33.78702376066496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>234.843</v>
@@ -1151,12 +1421,27 @@
         <v>157010940</v>
       </c>
       <c r="L18">
-        <v>46.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>46.28876635176776</v>
+      </c>
+      <c r="M18">
+        <v>119735</v>
+      </c>
+      <c r="N18">
+        <v>15839891</v>
+      </c>
+      <c r="O18">
+        <v>6760186</v>
+      </c>
+      <c r="P18">
+        <v>156987698</v>
+      </c>
+      <c r="Q18">
+        <v>21.25575612258866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>21.07</v>
@@ -1186,12 +1471,27 @@
         <v>232705452</v>
       </c>
       <c r="L19">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.174766323352129</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>78003927</v>
+      </c>
+      <c r="P19">
+        <v>156863950</v>
+      </c>
+      <c r="Q19">
+        <v>2.010975037192679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>10127.473</v>
@@ -1221,12 +1521,27 @@
         <v>1202513046</v>
       </c>
       <c r="L20">
-        <v>57.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>57.7406321822385</v>
+      </c>
+      <c r="M20">
+        <v>1892560</v>
+      </c>
+      <c r="N20">
+        <v>519397580</v>
+      </c>
+      <c r="O20">
+        <v>39680179</v>
+      </c>
+      <c r="P20">
+        <v>1200544694</v>
+      </c>
+      <c r="Q20">
+        <v>18.02566904255068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>5433.922</v>
@@ -1256,7 +1571,22 @@
         <v>1806067135</v>
       </c>
       <c r="L21">
-        <v>55.06</v>
+        <v>55.05600108986101</v>
+      </c>
+      <c r="M21">
+        <v>4258252</v>
+      </c>
+      <c r="N21">
+        <v>636634507</v>
+      </c>
+      <c r="O21">
+        <v>51429670</v>
+      </c>
+      <c r="P21">
+        <v>1791953648</v>
+      </c>
+      <c r="Q21">
+        <v>24.49193155482415</v>
       </c>
     </row>
   </sheetData>

--- a/excel/real_world_graph_time.xlsx
+++ b/excel/real_world_graph_time.xlsx
@@ -591,7 +591,7 @@
         <v>918795</v>
       </c>
       <c r="Q2">
-        <v>5.666613749264117</v>
+        <v>11.33322749852823</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -644,7 +644,7 @@
         <v>977594</v>
       </c>
       <c r="Q3">
-        <v>4.025245881358378</v>
+        <v>8.050491762716756</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,7 +697,7 @@
         <v>2421872</v>
       </c>
       <c r="Q4">
-        <v>6.418224268106206</v>
+        <v>12.83644853621241</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,7 +750,7 @@
         <v>1928091</v>
       </c>
       <c r="Q5">
-        <v>2.251908717909187</v>
+        <v>4.503817435818375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,7 +803,7 @@
         <v>2888957</v>
       </c>
       <c r="Q6">
-        <v>4.334655689709991</v>
+        <v>8.669311379419982</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,7 +856,7 @@
         <v>5094250</v>
       </c>
       <c r="Q7">
-        <v>6.002835348284709</v>
+        <v>12.00567069656942</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,7 +909,7 @@
         <v>6581031</v>
       </c>
       <c r="Q8">
-        <v>10.5027405276649</v>
+        <v>21.00548105532981</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,7 +962,7 @@
         <v>10832625</v>
       </c>
       <c r="Q9">
-        <v>7.535127484131722</v>
+        <v>15.07025496826344</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,7 +1015,7 @@
         <v>15745211</v>
       </c>
       <c r="Q10">
-        <v>5.346519426841782</v>
+        <v>10.69303885368356</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,7 +1068,7 @@
         <v>22132301</v>
       </c>
       <c r="Q11">
-        <v>15.13266956160845</v>
+        <v>30.2653391232169</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,7 +1121,7 @@
         <v>27552833</v>
       </c>
       <c r="Q12">
-        <v>11.5137770006387</v>
+        <v>23.02755400127739</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,7 +1174,7 @@
         <v>33823008</v>
       </c>
       <c r="Q13">
-        <v>10.38862230829653</v>
+        <v>20.77724461659307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,7 +1227,7 @@
         <v>41695681</v>
       </c>
       <c r="Q14">
-        <v>10.601332165256</v>
+        <v>21.202664330512</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,7 +1277,7 @@
         <v>38751887</v>
       </c>
       <c r="Q15">
-        <v>2.009447990292065</v>
+        <v>4.018895980584129</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,7 +1330,7 @@
         <v>114450945</v>
       </c>
       <c r="Q16">
-        <v>28.60642978681786</v>
+        <v>57.21285957363571</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,7 +1383,7 @@
         <v>117116597</v>
       </c>
       <c r="Q17">
-        <v>33.78702376066496</v>
+        <v>67.57404752132992</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,7 +1436,7 @@
         <v>156987698</v>
       </c>
       <c r="Q18">
-        <v>21.25575612258866</v>
+        <v>42.51151224517732</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,7 +1486,7 @@
         <v>156863950</v>
       </c>
       <c r="Q19">
-        <v>2.010975037192679</v>
+        <v>4.021950074385358</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,7 +1536,7 @@
         <v>1200544694</v>
       </c>
       <c r="Q20">
-        <v>18.02566904255068</v>
+        <v>36.05133808510136</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,7 +1586,7 @@
         <v>1791953648</v>
       </c>
       <c r="Q21">
-        <v>24.49193155482415</v>
+        <v>48.9838631096483</v>
       </c>
     </row>
   </sheetData>
